--- a/VoltageAndAHCalculations.xlsx
+++ b/VoltageAndAHCalculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauriciob\source\repos\FLL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E85235D6-CD2B-4167-B4DC-C6BB0CA3366C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4D4FEB-E491-43A1-B7EF-90D9DF02600F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="630" windowWidth="28770" windowHeight="15570" xr2:uid="{D1901D66-8725-4A32-A29E-E603FAF9A866}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{D1901D66-8725-4A32-A29E-E603FAF9A866}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -123,6 +123,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -441,15 +442,15 @@
   <dimension ref="B1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H22"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="91.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
@@ -457,18 +458,18 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
       <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="E4" s="4">
         <v>12.8</v>
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="E5" s="4">
         <f>E4-0.1</f>
         <v>12.700000000000001</v>
@@ -477,7 +478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>1</v>
       </c>
@@ -490,7 +491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B8" s="2">
         <v>12.8</v>
       </c>
@@ -514,6 +515,10 @@
         <f>10*(12.8-B8)</f>
         <v>0</v>
       </c>
+      <c r="D8" s="6">
+        <f>C8-18</f>
+        <v>-18</v>
+      </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
         <v>12.400000000000002</v>
@@ -523,7 +528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B9" s="2">
         <f>B8-0.1</f>
         <v>12.700000000000001</v>
@@ -532,6 +537,10 @@
         <f t="shared" ref="C9:C20" si="2">10*(12.8-B9)</f>
         <v>0.99999999999999645</v>
       </c>
+      <c r="D9" s="6">
+        <f t="shared" ref="D9:D20" si="3">C9-18</f>
+        <v>-17.000000000000004</v>
+      </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
         <v>12.300000000000002</v>
@@ -541,15 +550,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B10" s="2">
-        <f t="shared" ref="B10:B20" si="3">B9-0.1</f>
+        <f t="shared" ref="B10:B20" si="4">B9-0.1</f>
         <v>12.600000000000001</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="2"/>
         <v>1.9999999999999929</v>
       </c>
+      <c r="D10" s="6">
+        <f t="shared" si="3"/>
+        <v>-16.000000000000007</v>
+      </c>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
         <v>12.200000000000003</v>
@@ -559,15 +572,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.500000000000002</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="2"/>
         <v>2.9999999999999893</v>
       </c>
+      <c r="D11" s="6">
+        <f t="shared" si="3"/>
+        <v>-15.000000000000011</v>
+      </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
         <v>12.100000000000003</v>
@@ -577,15 +594,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.400000000000002</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="2"/>
         <v>3.9999999999999858</v>
       </c>
+      <c r="D12" s="6">
+        <f t="shared" si="3"/>
+        <v>-14.000000000000014</v>
+      </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
         <v>12.000000000000004</v>
@@ -595,15 +616,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.300000000000002</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="2"/>
         <v>4.9999999999999822</v>
       </c>
+      <c r="D13" s="6">
+        <f t="shared" si="3"/>
+        <v>-13.000000000000018</v>
+      </c>
       <c r="E13" s="4">
         <f t="shared" si="0"/>
         <v>11.900000000000004</v>
@@ -613,15 +638,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.200000000000003</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="2"/>
         <v>5.9999999999999787</v>
       </c>
+      <c r="D14" s="6">
+        <f t="shared" si="3"/>
+        <v>-12.000000000000021</v>
+      </c>
       <c r="E14" s="4">
         <f t="shared" si="0"/>
         <v>11.800000000000004</v>
@@ -631,15 +660,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.100000000000003</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="2"/>
         <v>6.9999999999999751</v>
       </c>
+      <c r="D15" s="6">
+        <f t="shared" si="3"/>
+        <v>-11.000000000000025</v>
+      </c>
       <c r="E15" s="4">
         <f t="shared" si="0"/>
         <v>11.700000000000005</v>
@@ -649,15 +682,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.000000000000004</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="2"/>
         <v>7.9999999999999716</v>
       </c>
+      <c r="D16" s="6">
+        <f t="shared" si="3"/>
+        <v>-10.000000000000028</v>
+      </c>
       <c r="E16" s="4">
         <f t="shared" si="0"/>
         <v>11.600000000000005</v>
@@ -667,44 +704,60 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.900000000000004</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="2"/>
         <v>8.999999999999968</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="6">
+        <f t="shared" si="3"/>
+        <v>-9.000000000000032</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.800000000000004</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="2"/>
         <v>9.9999999999999645</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="6">
+        <f t="shared" si="3"/>
+        <v>-8.0000000000000355</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.700000000000005</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="2"/>
         <v>10.999999999999961</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="6">
+        <f t="shared" si="3"/>
+        <v>-7.0000000000000391</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.600000000000005</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="2"/>
         <v>11.999999999999957</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" si="3"/>
+        <v>-6.0000000000000426</v>
       </c>
     </row>
   </sheetData>
